--- a/data/ref/glioma_driver_genes.xlsx
+++ b/data/ref/glioma_driver_genes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Helix-Projects/MSG/data/ref/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Helix-Projects/FRONTIER/data/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2D33A71A-95BA-7643-8F01-03B54CAA8D5F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="640" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="60300" yWindow="1820" windowWidth="51200" windowHeight="28260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$13</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>TP53</t>
   </si>
@@ -90,12 +91,30 @@
   </si>
   <si>
     <t>amplification</t>
+  </si>
+  <si>
+    <t>chr1p</t>
+  </si>
+  <si>
+    <t>chr19q</t>
+  </si>
+  <si>
+    <t>chr7</t>
+  </si>
+  <si>
+    <t>chr10</t>
+  </si>
+  <si>
+    <t>chr20</t>
+  </si>
+  <si>
+    <t>chr19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -166,6 +185,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -433,11 +455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,8 +612,56 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C13"/>
+  <autoFilter ref="A1:C13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1:A2 A4:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="29"/>
   </conditionalFormatting>
